--- a/Consumer/Formula One Group.xlsx
+++ b/Consumer/Formula One Group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A35C0-5A25-064E-94D7-4F5E0DF8DBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F6C79-092D-6542-9A09-3CD2CF1CE5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1700,7 +1700,10 @@
     <xf numFmtId="9" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1734,12 +1737,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1757,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1770,6 +1775,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1897,11 +1904,11 @@
     <v>Powered by Refinitiv</v>
     <v>69.48</v>
     <v>49.292099999999998</v>
-    <v>1.0538000000000001</v>
-    <v>-0.08</v>
-    <v>-1.3469999999999999E-3</v>
-    <v>-0.47</v>
-    <v>-7.9229999999999995E-3</v>
+    <v>1.1105</v>
+    <v>0.97</v>
+    <v>1.7260000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Liberty Media Corporation operates and owns interests in a range of media, communications and entertainment businesses. The Company’s businesses are attributed to three tracking stock groups: the Liberty SiriusXM Group, the Braves Group and the Formula One Group. The Company operates through two segments. Sirius XM Holdings segment operates two complementary audio entertainment businesses, Sirius XM and Pandora and Off-platform. Sirius XM features music, sports, entertainment, comedy, talk, news, traffic and weather channels and other content, as well as podcasts and infotainment services, in the U.S. on a subscription fee basis. The Pandora and Off-platform business operates a music, comedy and podcast streaming platform. Formula 1 segment is a global motorsports business that holds commercial rights with respect to the World Championship, an annual, approximately nine-month long, motor race-based competition.</v>
     <v>7200</v>
@@ -1909,25 +1916,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12300 Liberty Blvd, ENGLEWOOD, CO, 80112 US</v>
-    <v>59.937399999999997</v>
+    <v>57.52</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45257.918061585158</v>
+    <v>45268.888896157034</v>
     <v>0</v>
-    <v>58.98</v>
-    <v>27273500000</v>
+    <v>55.8</v>
+    <v>26050190000</v>
     <v>LIBERTY MEDIA CORPORATION</v>
     <v>LIBERTY MEDIA CORPORATION</v>
-    <v>58.98</v>
-    <v>31.2089</v>
-    <v>59.4</v>
-    <v>59.32</v>
-    <v>58.85</v>
+    <v>55.8</v>
+    <v>29.567399999999999</v>
+    <v>56.2</v>
+    <v>57.17</v>
+    <v>57.17</v>
     <v>652827800</v>
     <v>FWONA</v>
     <v>LIBERTY MEDIA CORPORATION (XNAS:FWONA)</v>
-    <v>64551</v>
-    <v>98345</v>
+    <v>61891</v>
+    <v>132195</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2092,9 +2099,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14044,7 +14051,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14061,7 +14068,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>27273500000</v>
+        <v>26050190000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14089,7 +14096,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>13133845459.955336</v>
+        <v>12903516807.180275</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -14141,14 +14148,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>10751092138.991701</v>
+        <v>10549296091.237776</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.3469999999999999E-3</v>
+        <v>1.7260000000000001E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14193,14 +14200,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>9290092138.9917011</v>
+        <v>9088296091.2377758</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>59.32</v>
+        <v>57.17</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14220,7 +14227,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>8.3661042944785269</v>
+        <v>7.9908558282208588</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14248,14 +14255,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>0.105461963955802</v>
+        <v>0.10689821548587033</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>14.016882855873293</v>
+        <v>13.712413156345427</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14275,14 +14282,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>142.04947916666666</v>
+        <v>135.67807291666668</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>1.2832969732524246E-2</v>
+        <v>1.3435602581017643E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14309,7 +14316,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.7637073018227698</v>
+        <v>-0.76014670008141638</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14636,7 +14643,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14788,7 +14795,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6922800000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14871,24 +14878,24 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>27273500000</v>
+        <v>26050190000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="119" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="119" cm="1">
+      <c r="B21" s="119"/>
+      <c r="C21" s="120" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
@@ -14901,7 +14908,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>30223500000</v>
+        <v>29000190000</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14929,7 +14936,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>9.7606167386305356E-2</v>
+        <v>0.10172347146691108</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14954,7 +14961,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.90239383261369466</v>
+        <v>0.89827652853308892</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -14998,7 +15005,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.105461963955802</v>
+        <v>0.10689821548587033</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
